--- a/DivisioneOrari-PianoOperativo.xlsx
+++ b/DivisioneOrari-PianoOperativo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3799D2-E9E8-4A74-BABC-60E6BBB330B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ACC2ED-1B59-4A07-BF35-FAFE43407E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,16 +591,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>1</v>
@@ -611,16 +611,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
       </c>
       <c r="C13" s="5">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>2</v>
@@ -631,13 +631,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
       </c>
       <c r="C14" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
       </c>
       <c r="C15" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -672,19 +672,19 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>SUM(A12:A15)</f>
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B16" s="7">
         <f>SUM(B12:B15)</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" ref="C16" si="1">SUM(C12:C15)</f>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ref="D16" si="2">SUM(D12:D15)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>9</v>

--- a/DivisioneOrari-PianoOperativo.xlsx
+++ b/DivisioneOrari-PianoOperativo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ACC2ED-1B59-4A07-BF35-FAFE43407E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED69EDCB-3B9E-43FD-A1C8-9DCBB3F916B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>Totale</t>
   </si>
   <si>
-    <t>Situazione al giorno 15/05/2020</t>
+    <t>Situazione al giorno 21/05/2020</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
